--- a/Streak/New Microsoft Excel Worksheet.xlsx
+++ b/Streak/New Microsoft Excel Worksheet.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Units" sheetId="1" r:id="rId1"/>
+    <sheet name="Buildings" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>Melee</t>
   </si>
@@ -127,6 +127,93 @@
 (+50% v S) 
 Invisible Scout 
 (Marksman)</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Health Happiness</t>
+  </si>
+  <si>
+    <t>Level 0</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Barracks</t>
+  </si>
+  <si>
+    <t>+2 XP</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Archery Range</t>
+  </si>
+  <si>
+    <t>Stable</t>
+  </si>
+  <si>
+    <t>+15% Defense in City</t>
+  </si>
+  <si>
+    <t>Inner Walls</t>
+  </si>
+  <si>
+    <t>Outer Walls</t>
+  </si>
+  <si>
+    <t>+10% Defense in City</t>
+  </si>
+  <si>
+    <t>+10% Defense 1 Square from City</t>
+  </si>
+  <si>
+    <t>Forge</t>
+  </si>
+  <si>
+    <t>Jeweller</t>
+  </si>
+  <si>
+    <t>Ironworks</t>
+  </si>
+  <si>
+    <t>Castle</t>
+  </si>
+  <si>
+    <t>Town Watch</t>
+  </si>
+  <si>
+    <t>+1 Visibility from Borders</t>
+  </si>
+  <si>
+    <t>Herballist</t>
+  </si>
+  <si>
+    <t>+1H/H</t>
+  </si>
+  <si>
+    <t>+2 P</t>
+  </si>
+  <si>
+    <t>+2 G</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Festival</t>
   </si>
 </sst>
 </file>
@@ -150,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,8 +262,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -184,11 +283,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -197,6 +397,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -687,12 +943,308 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="3" max="3" width="13.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="55"/>
+    </row>
+    <row r="6" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+    </row>
+    <row r="9" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+    </row>
+    <row r="15" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+    </row>
+    <row r="18" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+    </row>
+    <row r="19" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Streak/New Microsoft Excel Worksheet.xlsx
+++ b/Streak/New Microsoft Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>Melee</t>
   </si>
@@ -135,6 +135,9 @@
     <t>Defense</t>
   </si>
   <si>
+    <t>Economy</t>
+  </si>
+  <si>
     <t>Health Happiness</t>
   </si>
   <si>
@@ -210,10 +213,16 @@
     <t>+2 G</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Festival</t>
+  </si>
+  <si>
+    <t>Mage Hall</t>
+  </si>
+  <si>
+    <t>Theatre</t>
+  </si>
+  <si>
+    <t>Public Baths</t>
   </si>
 </sst>
 </file>
@@ -388,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -434,7 +443,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -756,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -945,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,28 +972,28 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C1" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>41</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -993,31 +1001,35 @@
         <v>36</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>47</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="55"/>
+        <v>45</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="44"/>
+      <c r="J5" s="54"/>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="C6" s="7"/>
       <c r="D6" s="37"/>
       <c r="E6" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="29"/>
@@ -1038,35 +1050,35 @@
     <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="C8" s="39"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="23"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>48</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="57" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>52</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="31"/>
@@ -1077,13 +1089,13 @@
       <c r="D10" s="37"/>
       <c r="E10" s="8"/>
       <c r="F10" s="33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="56" t="s">
         <v>58</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>59</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="31"/>
@@ -1117,42 +1129,42 @@
       <c r="E13" s="8"/>
       <c r="F13" s="34"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="49"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="27"/>
       <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
-        <v>63</v>
+      <c r="A14" s="60" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="53"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>62</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="60">
+        <v>56</v>
+      </c>
+      <c r="H14" s="59">
         <v>0.25</v>
       </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="C15" s="11"/>
       <c r="D15" s="37"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="59"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="60" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>63</v>
       </c>
       <c r="I15" s="27"/>
       <c r="J15" s="31"/>
@@ -1162,43 +1174,51 @@
       <c r="C16" s="11"/>
       <c r="D16" s="37"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="59"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="60"/>
+      <c r="H16" s="59"/>
       <c r="I16" s="27"/>
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="C17" s="21"/>
-      <c r="D17" s="46"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="53" t="s">
         <v>64</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
+        <v>61</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
@@ -1236,13 +1256,13 @@
     <row r="22" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
